--- a/Qhta.OpenXmlTools/PropertiesStrings.xlsx
+++ b/Qhta.OpenXmlTools/PropertiesStrings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\Projects\MyLib\Qhta.OpenXmlTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB21D11-B67E-4B75-9997-B4DA8981AE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1909CC-AF80-44CE-BA5F-B71CAC2C00C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="264">
   <si>
     <t>Project</t>
   </si>
@@ -533,9 +533,6 @@
     <t>Liczba wierszy</t>
   </si>
   <si>
-    <t>Aktualne linki</t>
-  </si>
-  <si>
     <t>Udostępniony dokument</t>
   </si>
   <si>
@@ -771,6 +768,63 @@
   </si>
   <si>
     <t>Ciąg znaków prezentowany jako tytuł tego dokumentu</t>
+  </si>
+  <si>
+    <t>Hiperłącza są aktualne</t>
+  </si>
+  <si>
+    <t>Document is password protected</t>
+  </si>
+  <si>
+    <t>Document is recommended to be opened as read-only</t>
+  </si>
+  <si>
+    <t>Document is locked for annotation</t>
+  </si>
+  <si>
+    <t>ReadOnlyRecommended</t>
+  </si>
+  <si>
+    <t>ReadOnlyForced</t>
+  </si>
+  <si>
+    <t>LockedForAnnotation</t>
+  </si>
+  <si>
+    <t>ReadOnly forced</t>
+  </si>
+  <si>
+    <t>ReadOnly recommended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password protected </t>
+  </si>
+  <si>
+    <t>Locked for annotation</t>
+  </si>
+  <si>
+    <t>PasswordProtected</t>
+  </si>
+  <si>
+    <t>Dokument jest chroniony hasłem</t>
+  </si>
+  <si>
+    <t>Zaleca się otwieranie dokumentu w trybie tylko do odczytu</t>
+  </si>
+  <si>
+    <t>Dokument jest zablokowany w celu dodania adnotacji</t>
+  </si>
+  <si>
+    <t>Zalecenie tylko do odczytu</t>
+  </si>
+  <si>
+    <t>Wymuszenie tylko do odczytu</t>
+  </si>
+  <si>
+    <t>Zablokowano do adnotacji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ochrona hasłem </t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117:E117"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,13 +1472,13 @@
         <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,7 +1665,7 @@
         <v>44</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,7 +1801,7 @@
         <v>24</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,7 +1818,7 @@
         <v>22</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,7 +1937,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,7 +1954,7 @@
         <v>114</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1934,7 +1988,7 @@
         <v>156</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,7 +2005,7 @@
         <v>115</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,7 +2022,7 @@
         <v>115</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,7 +2039,7 @@
         <v>116</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,7 +2056,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,7 +2073,7 @@
         <v>101</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,7 +2090,7 @@
         <v>102</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2053,7 +2107,7 @@
         <v>103</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,7 +2124,7 @@
         <v>104</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2098,13 +2152,13 @@
         <v>96</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2138,7 +2192,7 @@
         <v>118</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2189,7 +2243,7 @@
         <v>119</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2203,10 +2257,10 @@
         <v>54</v>
       </c>
       <c r="D60" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2223,7 +2277,7 @@
         <v>106</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,7 +2294,7 @@
         <v>107</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,7 +2311,7 @@
         <v>108</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,7 +2345,7 @@
         <v>121</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2308,7 +2362,7 @@
         <v>122</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2325,7 +2379,7 @@
         <v>109</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2342,7 +2396,7 @@
         <v>123</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,7 +2413,7 @@
         <v>124</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,7 +2430,7 @@
         <v>125</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2393,7 +2447,7 @@
         <v>126</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2410,7 +2464,7 @@
         <v>110</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2427,7 +2481,7 @@
         <v>127</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2444,7 +2498,7 @@
         <v>22</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2461,7 +2515,7 @@
         <v>111</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2478,7 +2532,7 @@
         <v>128</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2495,7 +2549,7 @@
         <v>112</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2529,7 +2583,7 @@
         <v>130</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2546,7 +2600,7 @@
         <v>113</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2563,7 +2617,7 @@
         <v>131</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2577,10 +2631,10 @@
         <v>93</v>
       </c>
       <c r="D82" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -2597,7 +2651,7 @@
         <v>132</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2614,7 +2668,7 @@
         <v>157</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2631,7 +2685,7 @@
         <v>133</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2648,7 +2702,7 @@
         <v>134</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2665,7 +2719,7 @@
         <v>135</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2682,7 +2736,7 @@
         <v>136</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2699,7 +2753,7 @@
         <v>137</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2713,10 +2767,10 @@
         <v>74</v>
       </c>
       <c r="D90" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2730,10 +2784,10 @@
         <v>73</v>
       </c>
       <c r="D91" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2750,7 +2804,7 @@
         <v>138</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2767,10 +2821,10 @@
         <v>139</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>4</v>
       </c>
@@ -2778,13 +2832,13 @@
         <v>97</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D94" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2801,7 +2855,7 @@
         <v>98</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2818,7 +2872,7 @@
         <v>140</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2835,7 +2889,7 @@
         <v>141</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2852,7 +2906,7 @@
         <v>142</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2869,7 +2923,7 @@
         <v>143</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2886,7 +2940,7 @@
         <v>105</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2903,7 +2957,7 @@
         <v>144</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2917,10 +2971,10 @@
         <v>50</v>
       </c>
       <c r="D102" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2934,10 +2988,10 @@
         <v>48</v>
       </c>
       <c r="D103" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2954,7 +3008,7 @@
         <v>145</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2968,10 +3022,10 @@
         <v>43</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2988,7 +3042,7 @@
         <v>146</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3002,10 +3056,10 @@
         <v>39</v>
       </c>
       <c r="D107" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3019,10 +3073,10 @@
         <v>36</v>
       </c>
       <c r="D108" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3039,7 +3093,7 @@
         <v>147</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3056,7 +3110,7 @@
         <v>148</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3073,7 +3127,7 @@
         <v>149</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3090,7 +3144,7 @@
         <v>150</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3107,7 +3161,7 @@
         <v>151</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3124,7 +3178,7 @@
         <v>152</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3138,10 +3192,10 @@
         <v>19</v>
       </c>
       <c r="D115" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E115" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3158,7 +3212,7 @@
         <v>153</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3172,10 +3226,10 @@
         <v>15</v>
       </c>
       <c r="D117" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E117" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3192,7 +3246,7 @@
         <v>154</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3209,7 +3263,7 @@
         <v>99</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,10 +3277,10 @@
         <v>7</v>
       </c>
       <c r="D120" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3243,7 +3297,143 @@
         <v>155</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/Qhta.OpenXmlTools/PropertiesStrings.xlsx
+++ b/Qhta.OpenXmlTools/PropertiesStrings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\Projects\MyLib\Qhta.OpenXmlTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1909CC-AF80-44CE-BA5F-B71CAC2C00C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B070B3-AA77-427C-94D1-F0669CD1C1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="337">
   <si>
     <t>Project</t>
   </si>
@@ -825,6 +825,226 @@
   </si>
   <si>
     <t xml:space="preserve">Ochrona hasłem </t>
+  </si>
+  <si>
+    <t>AlgorithmIdExtensibility</t>
+  </si>
+  <si>
+    <t>Cryptographic Algorithm Extensibility</t>
+  </si>
+  <si>
+    <t>Rozszerzalność algorytmu kryptograficznego</t>
+  </si>
+  <si>
+    <t>AlgorithmIdExtensibilitySource</t>
+  </si>
+  <si>
+    <t>Algorithm Extensibility Source</t>
+  </si>
+  <si>
+    <t>Źródło rozszerzalności algorytmu</t>
+  </si>
+  <si>
+    <t>AlgorithmName</t>
+  </si>
+  <si>
+    <t>Cryptographic Algorithm Name</t>
+  </si>
+  <si>
+    <t>Nazwa algorytmu kryptograficznego</t>
+  </si>
+  <si>
+    <t>CryptographicAlgorithmClass</t>
+  </si>
+  <si>
+    <t>Cryptographic Algorithm Class</t>
+  </si>
+  <si>
+    <t>Klasa algorytmu kryptograficznego</t>
+  </si>
+  <si>
+    <t>CryptographicAlgorithmSid</t>
+  </si>
+  <si>
+    <t>Cryptographic Hashing Algorithm</t>
+  </si>
+  <si>
+    <t>Kryptograficzny algorytm haszujący</t>
+  </si>
+  <si>
+    <t>CryptographicAlgorithmType</t>
+  </si>
+  <si>
+    <t>Cryptographic Algorithm Type</t>
+  </si>
+  <si>
+    <t>Typ algorytmu kryptograficznego</t>
+  </si>
+  <si>
+    <t>CryptographicProvider</t>
+  </si>
+  <si>
+    <t>Cryptographic Provider</t>
+  </si>
+  <si>
+    <t>Dostawca usług kryptograficznych</t>
+  </si>
+  <si>
+    <t>CryptographicProviderType</t>
+  </si>
+  <si>
+    <t>Cryptographic Provider Type</t>
+  </si>
+  <si>
+    <t>Typ dostawcy usług kryptograficznych</t>
+  </si>
+  <si>
+    <t>CryptographicProviderTypeExtensibility</t>
+  </si>
+  <si>
+    <t>Cryptographic Provider Type Extensibility</t>
+  </si>
+  <si>
+    <t>Rozszerzalność typu dostawcy kryptograficznego</t>
+  </si>
+  <si>
+    <t>CryptographicProviderTypeExtSource</t>
+  </si>
+  <si>
+    <t>Provider Type Extensibility Source</t>
+  </si>
+  <si>
+    <t>Źródło rozszerzalności typu dostawcy</t>
+  </si>
+  <si>
+    <t>CryptographicSpinCount</t>
+  </si>
+  <si>
+    <t>Iterations to Run Hashing Algorithm</t>
+  </si>
+  <si>
+    <t>Iteracje w celu uruchomienia algorytmu haszującego</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Document Editing Restrictions</t>
+  </si>
+  <si>
+    <t>Ograniczenia edycji dokumentu</t>
+  </si>
+  <si>
+    <t>Enforcement</t>
+  </si>
+  <si>
+    <t>Wymuszanie ustawień ochrony dokumentów</t>
+  </si>
+  <si>
+    <t>Formatting</t>
+  </si>
+  <si>
+    <t>Only Allow Formatting With Unlocked Styles</t>
+  </si>
+  <si>
+    <t>Zezwalaj na formatowanie tylko z odblokowanymi stylami</t>
+  </si>
+  <si>
+    <t>Hash</t>
+  </si>
+  <si>
+    <t>Password Hash</t>
+  </si>
+  <si>
+    <t>Skrót hasła</t>
+  </si>
+  <si>
+    <t>HashValue</t>
+  </si>
+  <si>
+    <t>Hash value</t>
+  </si>
+  <si>
+    <t>Wartość skrótu</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Salt for Password Verifier</t>
+  </si>
+  <si>
+    <t>Sól do weryfikatora haseł</t>
+  </si>
+  <si>
+    <t>SaltValue</t>
+  </si>
+  <si>
+    <t>Salt value</t>
+  </si>
+  <si>
+    <t>Wartość soli</t>
+  </si>
+  <si>
+    <t>SpinCount</t>
+  </si>
+  <si>
+    <t>Spin count</t>
+  </si>
+  <si>
+    <t>Liczba obrotów</t>
+  </si>
+  <si>
+    <t>Obsolete property</t>
+  </si>
+  <si>
+    <t>Właściwość przestarzała</t>
+  </si>
+  <si>
+    <t>Specifies the specific cryptographic hashing algorithm which shall be used along with the salt attribute and input password in order to compute the hash value.</t>
+  </si>
+  <si>
+    <t>Określa konkretny kryptograficzny algorytm haszowania, który powinien być używany wraz z atrybutem soli i hasłem wejściowym w celu obliczenia wartości skrótu.</t>
+  </si>
+  <si>
+    <t>Specifies the set of editing restrictions which shall be enforced on a given WordprocessingML document.</t>
+  </si>
+  <si>
+    <t>Określa zestaw ograniczeń edycyjnych, które mają być wymuszane na danym dokumencie WordprocessingML.</t>
+  </si>
+  <si>
+    <t>Określa, czy ustawienia ochrony dokumentu mają być wymuszane dla danego dokumentu WordprocessingML. Jeśli wartość tego elementu jest off, 0 lub false, wszystkie elementy WordprocessingML dotyczące ochrony dokumentów są nadal zachowywane w dokumencie, ale nie są wymuszane. Jeśli wartość tego elementu to on, 1 lub true, ochrona dokumentu jest wymuszana.</t>
+  </si>
+  <si>
+    <t>Specifies if formatting restrictions are in effect for a given WordprocessingML document. This enables the document to restrict the types of styles that can exist in a given WordprocessingML document. Specifically, by setting this attribute's value equal to true, every style whose locked element (§17.7.4.7) has a value of true (or latent styles (§17.7.4.5) whose locked attribute is true) shall not be available for use in the application, nor should any direct formatting. Only styles with a locked value of false can be used.</t>
+  </si>
+  <si>
+    <t>Określa, czy dla danego dokumentu WordprocessingML obowiązują ograniczenia formatowania. Dzięki temu dokument może ograniczyć typy stylów, które mogą istnieć w danym dokumencie WordprocessingML. W szczególności, ustawiając wartość tego atrybutu na true, każdy styl, którego zablokowany element (§17.7.4.7) ma wartość true (lub style ukryte (§17.7.4.5), którego zablokowany atrybut ma wartość true) nie będzie dostępny do użycia w aplikacji, podobnie jak formatowanie bezpośrednie. Można używać tylko stylów z zablokowaną wartością false.</t>
+  </si>
+  <si>
+    <t>Specifies the hash value for the password stored with this document. This value shall be compared with the resulting hash value after hashing the user-supplied password using the algorithm specified by the preceding attributes and parent XML element, and if the two values match, the protection shall no longer be enforced.</t>
+  </si>
+  <si>
+    <t>Określa wartość skrótu hasła przechowywanego w tym dokumencie. Wartość tę porównuje się z uzyskaną wartością skrótu po zaszyfrowaniu hasła podanego przez użytkownika przy użyciu algorytmu określonego przez poprzednie atrybuty i nadrzędny element XML, a jeżeli te dwie wartości są zgodne, ochrona nie jest już egzekwowana.</t>
+  </si>
+  <si>
+    <t>Specifies the salt which was prepended to the user-supplied password before it was hashed using the hashing algorithm defined by the preceding attribute values to generate the hashValue attribute, and which shall also be prepended to the user-supplied password before attempting to generate a hash value for comparison. A salt is a random string which is added to a user-supplied password before it is hashed in order to prevent a malicious party from pre-calculating all possible password/hash combinations and simply using those pre-calculated values (often referred to as a "dictionary attack").</t>
+  </si>
+  <si>
+    <t>Określa sól, która została poprzedzona hasłem podanym przez użytkownika przed jego skrótem przy użyciu algorytmu wyznaczania wartości skrótu zdefiniowanego przez poprzednie wartości atrybutów w celu wygenerowania atrybutu hashValue i która powinna być również dołączona do hasła podanego przez użytkownika przed próbą wygenerowania wartości skrótu do porównania. Sól to losowy ciąg znaków, który jest dodawany do hasła podanego przez użytkownika przed jego zaszyfrowaniem, aby uniemożliwić złośliwej stronie wstępne obliczenie wszystkich możliwych kombinacji hasła/skrótu i po prostu użycie tych wstępnie obliczonych wartości (często określane jako "atak słownikowy").</t>
+  </si>
+  <si>
+    <t>Specifies the number of times the hashing function shall be iteratively run (runs using each iteration's result plus a 4 byte value (0-based, little endian) containing the number of the iteration as the input for the next iteration) when attempting to compare a user-supplied
+password with the value stored in the hashValue attribute.</t>
+  </si>
+  <si>
+    <t>Określa, ile razy funkcja skrótu powinna być uruchamiana iteracyjnie (uruchamiana przy użyciu wyniku każdej iteracji oraz wartości 4-bajtowej (opartej na 0, little endian) zawierającej numer iteracji jako dane wejściowe dla następnej iteracji) podczas próby porównania hasła dostarczonego przez użytkownika z wartością przechowywaną w atrybucie hashValue.</t>
+  </si>
+  <si>
+    <t>Enforce Document Protection Properties</t>
+  </si>
+  <si>
+    <t>Specifies if the document protection Properties shall be enforced for a given WordprocessingML document. If the value of this element is off, 0, or false, all the WordprocessingML pertaining to document protection is still preserved in the document, but is not enforced. If the value of this element is on, 1, or true, the document protection is enforced.</t>
   </si>
 </sst>
 </file>
@@ -872,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -893,6 +1113,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1229,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:XFD167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3436,6 +3664,652 @@
         <v>262</v>
       </c>
     </row>
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E74">
